--- a/Controller Board/Controller Board Rev2/controller_board.xlsx
+++ b/Controller Board/Controller Board Rev2/controller_board.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="controller_board" sheetId="1" state="visible" r:id="rId2"/>
@@ -193,13 +193,13 @@
     <t xml:space="preserve">RR1220P-121-D</t>
   </si>
   <si>
-    <t xml:space="preserve">R10 </t>
+    <t xml:space="preserve">R11 </t>
   </si>
   <si>
     <t xml:space="preserve">CRCW08050000Z0EA</t>
   </si>
   <si>
-    <t xml:space="preserve">R11 R12 </t>
+    <t xml:space="preserve">R10 R12 </t>
   </si>
   <si>
     <t xml:space="preserve">DNP</t>
@@ -262,6 +262,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -376,93 +377,134 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.29081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.43877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="40.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="43.9438775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.9438775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5612244897959"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7448979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.5612244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="80.3469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.8316326530612"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.1887755102041"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.5"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1071428571429"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="43.469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.9795918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.9795918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="79.3775510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
       <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
       <c r="B3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
       <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
       <c r="B7" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
       <c r="B8" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
       <c r="B10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>23</v>
       </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
       <c r="B11" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>11</v>
       </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
     </row>
     <row r="15" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
